--- a/trained_models_old_clean/MLP/balance_scale/results_table.xlsx
+++ b/trained_models_old_clean/MLP/balance_scale/results_table.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8871556617122927, 'beta_2': 0.7079002294098619, 'epsilon': 0.277495899957879, 'learning_rate': 'constant', 'momentum': 0.5249704422542643, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3335074657912753}</t>
+          <t>{'beta_1': 0.7873764477255151, 'beta_2': 0.162288279939163, 'epsilon': 0.08149952270126404, 'learning_rate': 'invscaling', 'momentum': 0.6658713983098399, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7681946644627797}</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.898936170212766</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11069316714792313, 'beta_2': 0.27895318215123505, 'epsilon': 0.5521879955057969, 'learning_rate': 'constant', 'momentum': 0.6238667252688536, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.010585739586393417}</t>
+          <t>{'beta_1': 0.5366329578207587, 'beta_2': 0.1999896983202477, 'epsilon': 0.6729796163150507, 'learning_rate': 'adaptive', 'momentum': 0.26668018193606735, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5283199925726499}</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3887455424240846, 'beta_2': 0.9511905545981254, 'epsilon': 0.29972889055645363, 'learning_rate': 'adaptive', 'momentum': 0.8863046660865599, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9078755943543261}</t>
+          <t>{'beta_1': 0.7873764477255151, 'beta_2': 0.162288279939163, 'epsilon': 0.08149952270126404, 'learning_rate': 'invscaling', 'momentum': 0.6658713983098399, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7681946644627797}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.24955315384928356, 'beta_2': 0.010154777764660419, 'epsilon': 0.8302355151440006, 'learning_rate': 'constant', 'momentum': 0.23125495297968846, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9454309703916057}</t>
+          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8457446808510638</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04307512681418265, 'beta_2': 0.39381368275498735, 'epsilon': 0.8988351273012174, 'learning_rate': 'invscaling', 'momentum': 0.28533602462541374, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8274282541238485}</t>
+          <t>{'beta_1': 0.14725270241070745, 'beta_2': 0.7555309442696146, 'epsilon': 0.08370756155717446, 'learning_rate': 'invscaling', 'momentum': 0.48042142555013867, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16993498580038902}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8457446808510638</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.052354629733086175, 'beta_2': 0.9092212557463333, 'epsilon': 0.5338975961371942, 'learning_rate': 'constant', 'momentum': 0.6800837840490205, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25748830652559607}</t>
+          <t>{'beta_1': 0.8398002672922774, 'beta_2': 0.059698160042433585, 'epsilon': 0.3499209361375093, 'learning_rate': 'constant', 'momentum': 0.13442806125258255, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37966146833187575}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.425531914893617</v>
+        <v>0.8670212765957447</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9202127659574468</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8721175819534853, 'beta_2': 0.998853974216978, 'epsilon': 0.08020455051245581, 'learning_rate': 'invscaling', 'momentum': 0.685467145913117, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.04492978106568479}</t>
+          <t>{'beta_1': 0.8013857329555096, 'beta_2': 0.27456954982004717, 'epsilon': 0.7882252319748868, 'learning_rate': 'adaptive', 'momentum': 0.43696518540025087, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9700310320731962}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8457446808510638</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11370282374947131, 'beta_2': 0.6304944160294864, 'epsilon': 0.13268218376992516, 'learning_rate': 'constant', 'momentum': 0.3742961833209161, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23780724253903884}</t>
+          <t>{'beta_1': 0.38601463978525796, 'beta_2': 0.2891210581598599, 'epsilon': 0.1490866112283353, 'learning_rate': 'adaptive', 'momentum': 0.44286429476318045, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9107117463268657}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8882978723404256</v>
+        <v>0.8563829787234043</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9542478120828, 'beta_2': 0.5530798961168548, 'epsilon': 0.9357463476708033, 'learning_rate': 'invscaling', 'momentum': 0.9236518593869899, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19815949993946502}</t>
+          <t>{'beta_1': 0.4471927022822535, 'beta_2': 0.3907445764112232, 'epsilon': 0.05197778219303738, 'learning_rate': 'constant', 'momentum': 0.5423217530554092, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.590799840377505}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.19137944247298086, 'beta_2': 0.661512060052164, 'epsilon': 0.8504721144442051, 'learning_rate': 'invscaling', 'momentum': 0.44309818564492065, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9551260344725638}</t>
+          <t>{'beta_1': 0.3639228019573255, 'beta_2': 0.48280639975977313, 'epsilon': 0.9129734837504085, 'learning_rate': 'constant', 'momentum': 0.22804609816491894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3182942498743513}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8457446808510638</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
+          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8617021276595744</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8405658295134588, 'beta_2': 0.20948245257676695, 'epsilon': 0.8731547940405725, 'learning_rate': 'constant', 'momentum': 0.27996546408812184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25232305138669897}</t>
+          <t>{'beta_1': 0.880286526374104, 'beta_2': 0.8956147508012579, 'epsilon': 0.36698304972104845, 'learning_rate': 'invscaling', 'momentum': 0.7721249928010511, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10018511110802708}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9202127659574468</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
+          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8457446808510638</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
     <row r="17">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
+          <t>{'beta_1': 0.40608697736016275, 'beta_2': 0.9526096625874722, 'epsilon': 0.08420386789004532, 'learning_rate': 'adaptive', 'momentum': 0.1853129195793668, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5199849899533098}</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
+          <t>{'beta_1': 0.4441807347423176, 'beta_2': 0.9291962358814533, 'epsilon': 0.18108639448569455, 'learning_rate': 'constant', 'momentum': 0.5078736664026768, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5151529471065713}</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7544844029021169, 'beta_2': 0.11702474626133386, 'epsilon': 0.3558997110594858, 'learning_rate': 'invscaling', 'momentum': 0.4545898672304828, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3474596681158475}</t>
+          <t>{'beta_1': 0.5904743154531562, 'beta_2': 0.9207973478039624, 'epsilon': 0.8044585917235958, 'learning_rate': 'constant', 'momentum': 0.7119905766783191, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.49236140669088413}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8457446808510638</v>
+        <v>0.9042553191489362</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.44159360209219534, 'beta_2': 0.5194324221962674, 'epsilon': 0.693262454523613, 'learning_rate': 'invscaling', 'momentum': 0.46100682934939485, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5391182349867721}</t>
+          <t>{'beta_1': 0.17632288950017108, 'beta_2': 0.938221748178283, 'epsilon': 0.5058059117993652, 'learning_rate': 'invscaling', 'momentum': 0.4671194071688368, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30417355738924656}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8882978723404256</v>
+        <v>0.9840425531914894</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.17632288950017108, 'beta_2': 0.938221748178283, 'epsilon': 0.5058059117993652, 'learning_rate': 'invscaling', 'momentum': 0.4671194071688368, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30417355738924656}</t>
+          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8457446808510638</v>
+        <v>0.8882978723404256</v>
       </c>
     </row>
   </sheetData>
